--- a/priorytety.xlsx
+++ b/priorytety.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="390" windowWidth="21720" windowHeight="10920"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="28800" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -61,31 +60,31 @@
     <t>mieć możliwość edycji danych imprezy turystycznej</t>
   </si>
   <si>
-    <t>mieć możliwość usunięcia danych imprezy turystycznej</t>
-  </si>
-  <si>
     <t>mieć możliwość tworzenia składników imprez turystycznych</t>
   </si>
   <si>
-    <t>mieć możliwość wyszukania składników imprez turystycznych</t>
-  </si>
-  <si>
     <t>mieć możliwość edycji składników imprez turystycznych</t>
   </si>
   <si>
-    <t>mieć możliwość usunięcia składników imprez turystycznych</t>
-  </si>
-  <si>
     <t>mieć możliwość tworzenia katalogów imprez turystycznych</t>
   </si>
   <si>
-    <t>mieć możliwość wyszukania katalogów imprez turystycznych</t>
-  </si>
-  <si>
     <t>Ilość:</t>
   </si>
   <si>
     <t>------</t>
+  </si>
+  <si>
+    <t>mieć możliwość tworzenia terminów imprez turystycznych</t>
+  </si>
+  <si>
+    <t>mieć możliwość tworzenia cenników imprez turystycznych</t>
+  </si>
+  <si>
+    <t>mieć możliwość edycji terminów imprez turystycznych</t>
+  </si>
+  <si>
+    <t>mieć możliwość edycji cenników imprez turystycznych</t>
   </si>
 </sst>
 </file>
@@ -512,7 +511,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +571,7 @@
     </row>
     <row r="3" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -599,7 +598,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -636,7 +635,7 @@
     </row>
     <row r="5" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -668,7 +667,7 @@
     </row>
     <row r="6" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -700,7 +699,7 @@
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -796,7 +795,7 @@
     </row>
     <row r="10" spans="1:10" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -828,7 +827,7 @@
     </row>
     <row r="11" spans="1:10" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -860,7 +859,7 @@
     </row>
     <row r="12" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -892,7 +891,7 @@
     </row>
     <row r="13" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>1</v>
